--- a/CashFlow/APD_cashflow.xlsx
+++ b/CashFlow/APD_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1639000000.0</v>
+        <v>-6700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1617000000.0</v>
+        <v>-5200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1222500000.0</v>
+        <v>-14800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>812200000.0</v>
+        <v>-5300000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>408400000.0</v>
+        <v>-1000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-3000000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>4476000000.0</v>
+        <v>107700000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4242000000.0</v>
+        <v>-31900000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3749000000.0</v>
+        <v>-131700000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2547700000.0</v>
+        <v>-28100000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1240600000.0</v>
+        <v>-101800000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-41800000.0</v>
